--- a/data/am_tram3_name.xlsx
+++ b/data/am_tram3_name.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\UTNCE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5488B3D2-DDDB-4514-B218-CF64594B3BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74564A1-9E24-4B13-A88E-EDB5AB610722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40905" yWindow="2385" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Van Baerlestraat</t>
   </si>
   <si>
-    <t>Overtoom</t>
-  </si>
-  <si>
     <t>Kinkerstraat</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>Van Limburg Stirumplein</t>
+  </si>
+  <si>
+    <t>Overtoom/ 1e C. Huygensstraat</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +482,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -507,47 +507,47 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
